--- a/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_6_6.xlsx
+++ b/function_ensemble/redes-ensemble-s/Teste02/content/results/metrics_6_6.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_2</t>
+          <t>model_6_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9615537146700706</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8255858123766804</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9956306525850189</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9138415410744918</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9321657910386604</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2570904870301042</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H2" t="n">
-        <v>1.166308475740627</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01656881843678763</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J2" t="n">
-        <v>1.132183988783657</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5743764036102225</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7761754310134802</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5070409125801429</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N2" t="n">
-        <v>1.022505142632154</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5286266939480648</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P2" t="n">
-        <v>132.7166543328892</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q2" t="n">
-        <v>211.9435829493223</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_3</t>
+          <t>model_6_6_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9631263063724028</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8255659857311013</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9930096816401967</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9129048827590451</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9308520860650062</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2465745590754895</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H3" t="n">
-        <v>1.166441056610908</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0265076920461421</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J3" t="n">
-        <v>1.144492351316308</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5855000114435857</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7328284400417725</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4965627443490797</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N3" t="n">
-        <v>1.021584601147862</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5177024484026068</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P3" t="n">
-        <v>132.80018172068</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q3" t="n">
-        <v>212.0271103371131</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_4</t>
+          <t>model_6_6_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9642704570549665</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8253609751000271</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D4" t="n">
-        <v>0.990125929427677</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9119755479896332</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9294852422080646</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2389236181928567</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H4" t="n">
-        <v>1.167811963644887</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03744304744088615</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J4" t="n">
-        <v>1.156704477197737</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.5970735651249482</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L4" t="n">
-        <v>0.6943822892338721</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4887981364457691</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N4" t="n">
-        <v>1.020914854406849</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O4" t="n">
-        <v>0.509607285065898</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P4" t="n">
-        <v>132.8632227345627</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q4" t="n">
-        <v>212.0901513509957</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_1</t>
+          <t>model_6_6_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9594366296719552</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8253452640144825</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978253082897683</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E5" t="n">
-        <v>0.914779889441623</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9333854145269036</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2712474441607814</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H5" t="n">
-        <v>1.167917023746268</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008246556906707364</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J5" t="n">
-        <v>1.119853417758867</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5640494172170458</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8250845291396115</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5208142127100425</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N5" t="n">
-        <v>1.023744411899343</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5429863519791561</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P5" t="n">
-        <v>132.6094475932412</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q5" t="n">
-        <v>211.8363762096742</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_5</t>
+          <t>model_6_6_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9650788343163109</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8250265267498722</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9871011067676424</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9110603846721833</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9280977574795453</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2335179957240113</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H6" t="n">
-        <v>1.170048421302367</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04891335014232753</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J6" t="n">
-        <v>1.168730380029108</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6088218924163483</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L6" t="n">
-        <v>0.660263726533485</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4832369974701971</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N6" t="n">
-        <v>1.020441657961184</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5038093968909914</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P6" t="n">
-        <v>132.9089922707221</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q6" t="n">
-        <v>212.1359208871551</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_0</t>
+          <t>model_6_6_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9566295842850728</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8247417814988972</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9993714889236079</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9157167557490926</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F7" t="n">
-        <v>0.934458545228504</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2900181695881198</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H7" t="n">
-        <v>1.171952514106768</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00238335040023249</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J7" t="n">
-        <v>1.107542322061752</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5549628374156906</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L7" t="n">
-        <v>0.8802993330075453</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5385333504882681</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N7" t="n">
-        <v>1.025387560418494</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5614598301362724</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P7" t="n">
-        <v>132.4756234084243</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q7" t="n">
-        <v>211.7025520248573</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_6</t>
+          <t>model_6_6_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9656252546464463</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C8" t="n">
-        <v>0.824604374930188</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9840249285220803</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9101656570263215</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9267146107157583</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2298640804603614</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H8" t="n">
-        <v>1.172871352464425</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I8" t="n">
-        <v>0.06057839619821208</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J8" t="n">
-        <v>1.180487743468521</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6205334886155732</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6300084112384162</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4794414254738126</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N8" t="n">
-        <v>1.020121802158178</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4998522395368036</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P8" t="n">
-        <v>132.9405341985231</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.1674628149561</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_7</t>
+          <t>model_6_6_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9659688462848928</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8241260171285223</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9809639454263681</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9092974297070083</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9253555755933234</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2275664815919767</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H9" t="n">
-        <v>1.176070133286799</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I9" t="n">
-        <v>0.07218582136587914</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J9" t="n">
-        <v>1.191896873597005</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6320409229611128</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L9" t="n">
-        <v>0.6031033455196669</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4770392872625657</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N9" t="n">
-        <v>1.019920675345429</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4973478373287922</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P9" t="n">
-        <v>132.9606257130063</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q9" t="n">
-        <v>212.1875543294393</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_8</t>
+          <t>model_6_6_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9661568348348923</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.823615185407834</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9779671549225344</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9084612303899943</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9240355424461769</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G10" t="n">
-        <v>0.226309401292522</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H10" t="n">
-        <v>1.179486067355205</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I10" t="n">
-        <v>0.083549824507599</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J10" t="n">
-        <v>1.202885132787826</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6432181136929503</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L10" t="n">
-        <v>0.5791354482973113</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4757198769155248</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01981063326738</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4959722569517218</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P10" t="n">
-        <v>132.9717043674246</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q10" t="n">
-        <v>212.1986329838577</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_9</t>
+          <t>model_6_6_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.966226763499837</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8230897822712062</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9750698851736681</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9076610178128467</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9227659530855299</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2258417879880444</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H11" t="n">
-        <v>1.182999440549094</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09453643918300139</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J11" t="n">
-        <v>1.213400500388042</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6539681789210404</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L11" t="n">
-        <v>0.5577659442899343</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4752281430934456</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N11" t="n">
-        <v>1.01976969941473</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4954595890028075</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P11" t="n">
-        <v>132.9758411560234</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.2027697724565</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_10</t>
+          <t>model_6_6_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9662085709410373</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C12" t="n">
-        <v>0.82256318007923</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9722964008563475</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9069003709734735</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9215546452165376</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2259634417125075</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H12" t="n">
-        <v>1.186520831831619</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1050536523332775</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J12" t="n">
-        <v>1.223395945796388</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6642247540047573</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5386992542342468</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4753561209372479</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N12" t="n">
-        <v>1.019780348717441</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4955930151283711</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P12" t="n">
-        <v>132.9747641102577</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q12" t="n">
-        <v>212.2016927266907</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_11</t>
+          <t>model_6_6_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.966125763039805</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8220451719403519</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9696629577150054</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9061810363736782</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9204067338848609</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2265171785293427</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H13" t="n">
-        <v>1.189984754641505</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1150398212341292</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J13" t="n">
-        <v>1.232848518725653</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.673944528030981</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5216729400938008</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4759382087302328</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N13" t="n">
-        <v>1.019828821635236</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4961998836037912</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P13" t="n">
-        <v>132.9698689870767</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q13" t="n">
-        <v>212.1967976035098</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9659969563765325</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8215428356801118</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9671795851430823</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9055042726093292</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9193256312610121</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2273785092797465</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H14" t="n">
-        <v>1.193343879526777</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1244569138448046</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J14" t="n">
-        <v>1.24174168032279</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.6830986089368813</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5064581564693019</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4768422268211431</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N14" t="n">
-        <v>1.019904220657639</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O14" t="n">
-        <v>0.497142387616407</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P14" t="n">
-        <v>132.9622784167546</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.1892070331877</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_13</t>
+          <t>model_6_6_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9658367186936009</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8210611751960425</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9648507466079149</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9048706764868405</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9183123738482253</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G15" t="n">
-        <v>0.228450019403337</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H15" t="n">
-        <v>1.196564745401591</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1332880044386732</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J15" t="n">
-        <v>1.250067588123176</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.6916782202804679</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4928511935262053</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4779644541211585</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N15" t="n">
-        <v>1.019998018325697</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4983123904559148</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P15" t="n">
-        <v>132.9528756520763</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q15" t="n">
-        <v>212.1798042685093</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_14</t>
+          <t>model_6_6_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9656563616515856</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8206034052330997</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9626775635880704</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9042799817066957</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9173674335272255</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2296560677737607</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H16" t="n">
-        <v>1.199625855251626</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1415288403040606</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J16" t="n">
-        <v>1.257829741493587</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.6996793664795994</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4806788969629065</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4792244440486741</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N16" t="n">
-        <v>1.02010359317956</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4996260207631834</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P16" t="n">
-        <v>132.9423448934544</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q16" t="n">
-        <v>212.1692735098875</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_15</t>
+          <t>model_6_6_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9654645141083824</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8201715898013241</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9606580433581855</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9037311963756413</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9164893711530088</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2309389531785372</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H17" t="n">
-        <v>1.202513407032237</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1491869779709478</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J17" t="n">
-        <v>1.265041174623285</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.707114233287518</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4697831901652964</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4805610816311878</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N17" t="n">
-        <v>1.020215894180459</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O17" t="n">
-        <v>0.501019561774806</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P17" t="n">
-        <v>132.9312037506814</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.1581323671145</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_16</t>
+          <t>model_6_6_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9652678114781985</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8197667234290044</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9587882871607007</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E18" t="n">
-        <v>0.90322309630789</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9156763666083774</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2322543045723094</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H18" t="n">
-        <v>1.205220750328177</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1562772017537865</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J18" t="n">
-        <v>1.27171797419215</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7139982322846951</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L18" t="n">
-        <v>0.4600213916934923</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4819276964154575</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N18" t="n">
-        <v>1.020331037183493</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O18" t="n">
-        <v>0.5024443561797247</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P18" t="n">
-        <v>132.9198447344824</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q18" t="n">
-        <v>212.1467733509154</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_17</t>
+          <t>model_6_6_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9650711116460361</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C19" t="n">
-        <v>0.819389127370463</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9570627096159021</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9027537992003106</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9149258973195032</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2335696372556987</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H19" t="n">
-        <v>1.207745736910314</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1628206917359146</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J19" t="n">
-        <v>1.277884875014311</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7203527230020423</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4512727361314107</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4832904274405802</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N19" t="n">
-        <v>1.020446178548662</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O19" t="n">
-        <v>0.503865101485829</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P19" t="n">
-        <v>132.9085500279543</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q19" t="n">
-        <v>212.1354786443874</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_18</t>
+          <t>model_6_6_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9648781364766702</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8190384353520335</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9554742844978609</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9023218378464337</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9142350188683427</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2348600631018175</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H20" t="n">
-        <v>1.21009081605234</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1688440917729596</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J20" t="n">
-        <v>1.283561157235835</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7262026368756684</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L20" t="n">
-        <v>0.4434312758940456</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4846236303584643</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N20" t="n">
-        <v>1.020559139623413</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5052550616120379</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P20" t="n">
-        <v>132.8975308367336</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.1244594531667</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_19</t>
+          <t>model_6_6_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9646915120668741</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8187139837362177</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9540161247550021</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E21" t="n">
-        <v>0.901925145611481</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9136006798609591</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2361080213894503</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H21" t="n">
-        <v>1.212260425501262</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1743735179633384</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J21" t="n">
-        <v>1.288773977920994</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7315738111446621</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L21" t="n">
-        <v>0.4364016389898226</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4859094785960141</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N21" t="n">
-        <v>1.020668383180366</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O21" t="n">
-        <v>0.5065956510711329</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P21" t="n">
-        <v>132.8869317218509</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q21" t="n">
-        <v>212.1138603382839</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_20</t>
+          <t>model_6_6_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9645129555957048</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8184147764765271</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9526799836605737</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E22" t="n">
-        <v>0.901561492275917</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9130192845037278</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2373020293343365</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H22" t="n">
-        <v>1.214261225824537</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1794402423724823</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J22" t="n">
-        <v>1.293552643755178</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7364966926741349</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L22" t="n">
-        <v>0.4300884132515476</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4871365612785972</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N22" t="n">
-        <v>1.020772904041539</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O22" t="n">
-        <v>0.5078749732039249</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P22" t="n">
-        <v>132.8768431276197</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q22" t="n">
-        <v>212.1037717440528</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_21</t>
+          <t>model_6_6_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9643436759388869</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8181396101085395</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9514583133102187</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9012288445855499</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9124875732191291</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2384340031789387</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H23" t="n">
-        <v>1.216101264594294</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1840728870908303</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J23" t="n">
-        <v>1.297923873157797</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7409988814677098</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L23" t="n">
-        <v>0.4244303097544991</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M23" t="n">
-        <v>0.488297043999796</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N23" t="n">
-        <v>1.020871994572359</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O23" t="n">
-        <v>0.5090848600770956</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P23" t="n">
-        <v>132.8673254463552</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.0942540627883</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_22</t>
+          <t>model_6_6_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9641842696565778</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8178871841685346</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9503426888321261</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9009248943168662</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9120019689765563</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2394999537227386</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H24" t="n">
-        <v>1.217789238017421</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I24" t="n">
-        <v>0.1883033997201931</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J24" t="n">
-        <v>1.301917997842498</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7451106655173453</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L24" t="n">
-        <v>0.4193505715652122</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4893873248488753</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N24" t="n">
-        <v>1.020965305566881</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O24" t="n">
-        <v>0.5102215564391126</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P24" t="n">
-        <v>132.8584041107113</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q24" t="n">
-        <v>212.0853327271444</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_6_23</t>
+          <t>model_6_6_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9640351748535185</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C25" t="n">
-        <v>0.817656054410934</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9493256580365412</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9006479189680855</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9115592369822826</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2404969513573139</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H25" t="n">
-        <v>1.219334803770751</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I25" t="n">
-        <v>0.192160039395695</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J25" t="n">
-        <v>1.305557652718967</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7488594349734615</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4147910121066951</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4904048851279052</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N25" t="n">
-        <v>1.02105258057355</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O25" t="n">
-        <v>0.511282436365861</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P25" t="n">
-        <v>132.8500957315713</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q25" t="n">
-        <v>212.0770243480043</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9638963235965933</v>
+        <v>0.9996522078040857</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8174448764690148</v>
+        <v>0.7171113838424945</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9484001981735952</v>
+        <v>0.9991598579591986</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9003954064833594</v>
+        <v>0.9999334210127564</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9111561471624854</v>
+        <v>0.9996416390966174</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2414254503517246</v>
+        <v>0.0002064644713353352</v>
       </c>
       <c r="H26" t="n">
-        <v>1.22074695164075</v>
+        <v>0.1679349027030201</v>
       </c>
       <c r="I26" t="n">
-        <v>0.1956694367915425</v>
+        <v>0.0002448000328873662</v>
       </c>
       <c r="J26" t="n">
-        <v>1.30887584800403</v>
+        <v>2.023318214257338e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7522725400213726</v>
+        <v>0.0001325166075149698</v>
       </c>
       <c r="L26" t="n">
-        <v>0.4106899422074528</v>
+        <v>0.004152944209694312</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4913506389043619</v>
+        <v>0.01436887160967538</v>
       </c>
       <c r="N26" t="n">
-        <v>1.021133859358092</v>
+        <v>1.000203585675657</v>
       </c>
       <c r="O26" t="n">
-        <v>0.5122684528385617</v>
+        <v>0.01498058422176399</v>
       </c>
       <c r="P26" t="n">
-        <v>132.8423890954822</v>
+        <v>146.9707644240213</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.0693177119153</v>
+        <v>226.1976930404543</v>
       </c>
     </row>
   </sheetData>
